--- a/CaraLuggage/Template/OrderVisitor.xlsx
+++ b/CaraLuggage/Template/OrderVisitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MVC-Web\CaraStore\CaraLuggage\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877598B9-E070-44E8-B6BD-05FC2F6375F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90BE3F9-8B01-4866-908B-ECEE81125E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{6CC09617-7854-45C2-8BB1-6A97F136992A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6CC09617-7854-45C2-8BB1-6A97F136992A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>HÓA ĐƠN BÁN HÀNG</t>
   </si>
@@ -105,13 +105,13 @@
     <t xml:space="preserve">Địa chỉ: </t>
   </si>
   <si>
+    <t>Túi đeo Precisionpak 95086_2</t>
+  </si>
+  <si>
+    <t>Trường Nguyễn</t>
+  </si>
+  <si>
     <t>Balo Knomo 119-419</t>
-  </si>
-  <si>
-    <t>Trường Nguyễn</t>
-  </si>
-  <si>
-    <t>Túi đeo Precisionpak 95086_2</t>
   </si>
 </sst>
 </file>
@@ -918,7 +918,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
@@ -1023,8 +1023,8 @@
         <v>50400</v>
       </c>
       <c r="E9" s="17">
-        <f>C9*D9</f>
-        <v>100800</v>
+        <f>D9</f>
+        <v>50400</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         <v>19800</v>
       </c>
       <c r="E10" s="17">
-        <f t="shared" ref="E10:E23" si="0">C10*D10</f>
+        <f>D10</f>
         <v>19800</v>
       </c>
     </row>
@@ -1049,18 +1049,12 @@
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7">
-        <v>4</v>
-      </c>
-      <c r="D11" s="19">
-        <v>100800</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="17">
-        <f t="shared" si="0"/>
-        <v>403200</v>
+        <f>D11</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1071,7 +1065,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="19"/>
       <c r="E12" s="17">
-        <f>C12*D12</f>
+        <f t="shared" ref="E12:E23" si="0">D12</f>
         <v>0</v>
       </c>
     </row>
@@ -1214,7 +1208,7 @@
       <c r="B24" s="36"/>
       <c r="C24" s="41">
         <f>SUM(E9:E23)</f>
-        <v>523800</v>
+        <v>70200</v>
       </c>
       <c r="D24" s="42"/>
       <c r="E24" s="43"/>
@@ -1226,7 +1220,7 @@
     <row r="26" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="C26" s="37">
-        <v>45379.441736111112</v>
+        <v>45375.600092592591</v>
       </c>
       <c r="D26" s="37"/>
       <c r="E26" s="38"/>
